--- a/public/ddbb/NO_TOCAR.xlsx
+++ b/public/ddbb/NO_TOCAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATENTO\WEB_TRAININGS\115. CLARO SWAT\wt-claro-swat\public\ddbb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Atento\Plantilla\web-training-template\public\ddbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3311845B-2E93-4AE3-BA55-CE5FC0D6E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17039B94-E14F-4F13-B1DB-B6C69E1CDD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D901162-2F75-446A-921C-53A98AECD881}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CLAVE</t>
   </si>
@@ -48,16 +48,30 @@
   </si>
   <si>
     <t>v.1.0.0</t>
+  </si>
+  <si>
+    <t>control de accesos</t>
+  </si>
+  <si>
+    <t>http://colbogweb26:8083/Webservices_Simulador/api/main/insUpdTransaccion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,13 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B7DA92-DF14-4EE5-9B1F-6454EA508A58}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -443,7 +464,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9BD0F497-C2F0-4C6D-9ABC-619713A00B0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>